--- a/NeuronFinder_Hyperparametrs.xlsx
+++ b/NeuronFinder_Hyperparametrs.xlsx
@@ -34,10 +34,10 @@
     <t xml:space="preserve">Sigma(Standard Deviation)</t>
   </si>
   <si>
+    <t xml:space="preserve">00.00.test</t>
+  </si>
+  <si>
     <t xml:space="preserve">00.01.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00.02.test</t>
   </si>
   <si>
     <t xml:space="preserve">01.00.test</t>
@@ -309,7 +309,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/NeuronFinder_Hyperparametrs.xlsx
+++ b/NeuronFinder_Hyperparametrs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t xml:space="preserve">Hyperparameters for finding Neurons ROI</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">03.00.test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.01.test</t>
   </si>
   <si>
     <t xml:space="preserve">04.00.test</t>
@@ -106,6 +103,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,18 +125,21 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -306,19 +307,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,53 +402,59 @@
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -459,7 +466,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -471,7 +478,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -483,7 +490,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -495,7 +502,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -507,7 +514,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -519,7 +526,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -531,7 +538,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -541,55 +548,47 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -597,7 +596,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -605,7 +604,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -613,7 +612,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -621,7 +620,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -629,7 +628,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -637,42 +636,18 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
